--- a/java/Linux/Docker_Desktop.xlsx
+++ b/java/Linux/Docker_Desktop.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22368" windowHeight="9420" activeTab="4"/>
+    <workbookView windowWidth="22368" windowHeight="9420"/>
   </bookViews>
   <sheets>
     <sheet name="安装" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,14 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="67">
+  <si>
+    <t>区分：Docker安装和Linux安装</t>
+  </si>
+  <si>
+    <t>Docker安装不需要购买服务器，开发用
+Linux安装需购买服务器，上线用</t>
+  </si>
   <si>
     <t>Docker-desktop下载</t>
   </si>
@@ -873,7 +880,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -885,6 +892,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1240,10 +1250,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A2:B9"/>
+  <dimension ref="A1:B9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="1"/>
@@ -1252,55 +1262,63 @@
     <col min="2" max="2" width="100.777777777778" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="1" ht="28.8" spans="1:2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>1</v>
+      </c>
+    </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="4"/>
-      <c r="B4" s="4"/>
+      <c r="A4" s="5"/>
+      <c r="B4" s="5"/>
     </row>
     <row r="5" ht="43.2" spans="1:2">
       <c r="A5" s="2" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="2" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" s="5"/>
-      <c r="B7" s="5"/>
+      <c r="A7" s="6"/>
+      <c r="B7" s="6"/>
     </row>
     <row r="8" spans="2:2">
       <c r="B8" s="1"/>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>
@@ -1337,90 +1355,90 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B4" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="6" ht="28.8" spans="1:2">
       <c r="A6" s="2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B6" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B8" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B9" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B10" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B11" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>
@@ -1450,66 +1468,66 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B3" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B4" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B5" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B6" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B7" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B8" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
   </sheetData>
@@ -1539,26 +1557,26 @@
   <sheetData>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="4" ht="43.2" spans="1:2">
       <c r="A4" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="5" spans="2:2">
@@ -1566,47 +1584,47 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B6" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B7" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
     <row r="8" spans="2:2">
       <c r="B8" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="3" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B9" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
   </sheetData>
@@ -1627,7 +1645,7 @@
   <sheetPr/>
   <dimension ref="A2:B4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
@@ -1639,26 +1657,26 @@
   <sheetData>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B3" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B4" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
   </sheetData>

--- a/java/Linux/Docker_Desktop.xlsx
+++ b/java/Linux/Docker_Desktop.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22368" windowHeight="9420"/>
+    <workbookView windowWidth="22368" windowHeight="9420" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="安装" sheetId="1" r:id="rId1"/>
@@ -89,8 +89,70 @@
     <t>docker images</t>
   </si>
   <si>
-    <t>方式1：启动 Mysql 容器
-注意：端口冲突、名字冲突</t>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>方式1：启动 Mysql 容器
+端口冲突（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>连接要用映射端口</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>）
+名字冲突（--name 新名）
+Docker Desktop是本地不是远程，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>主机是localhost</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>默认用户名是root，密码这里设置了</t>
+    </r>
   </si>
   <si>
     <t>docker run -p 3316:3306 --name mysql01 -e MYSQL_ROOT_PASSWORD=root -d mysql:5.7</t>
@@ -264,7 +326,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -419,6 +481,13 @@
     <font>
       <sz val="11"/>
       <color theme="9" tint="-0.25"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -893,7 +962,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -961,6 +1030,130 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>635</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>15240</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1210310</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>172085</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="图片 1" descr="ali30"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="635" y="3124200"/>
+          <a:ext cx="4692015" cy="3814445"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>7620</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1722755</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>129540</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="图片 1" descr="ali32"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7620" y="1653540"/>
+          <a:ext cx="4511675" cy="1767840"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>2019300</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>175260</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>6068060</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>127635</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="图片 2" descr="ali33"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4815840" y="1638300"/>
+          <a:ext cx="4048760" cy="1781175"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1252,7 +1445,7 @@
   <sheetPr/>
   <dimension ref="A1:B9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
@@ -1266,7 +1459,7 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
     </row>
@@ -1343,13 +1536,13 @@
   <sheetPr/>
   <dimension ref="A1:B11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" width="40.7777777777778" customWidth="1"/>
+    <col min="1" max="1" width="50.7777777777778" customWidth="1"/>
     <col min="2" max="2" width="120.777777777778" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1393,8 +1586,8 @@
         <v>21</v>
       </c>
     </row>
-    <row r="6" ht="28.8" spans="1:2">
-      <c r="A6" s="2" t="s">
+    <row r="6" ht="72" spans="1:2">
+      <c r="A6" s="4" t="s">
         <v>22</v>
       </c>
       <c r="B6" t="s">
@@ -1443,11 +1636,12 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" display="https://my.oschina.net/jeecg/blog/4283700"/>
+    <hyperlink ref="B2" r:id="rId2" display="https://my.oschina.net/jeecg/blog/4283700"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1456,8 +1650,8 @@
   <sheetPr/>
   <dimension ref="A1:B8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="7" outlineLevelCol="1"/>
@@ -1532,11 +1726,12 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" display="https://www.runoob.com/docker/docker-install-redis.html"/>
+    <hyperlink ref="B2" r:id="rId2" display="https://www.runoob.com/docker/docker-install-redis.html"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/java/Linux/Docker_Desktop.xlsx
+++ b/java/Linux/Docker_Desktop.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22368" windowHeight="9420" activeTab="2"/>
+    <workbookView windowWidth="22368" windowHeight="9420" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="安装" sheetId="1" r:id="rId1"/>
@@ -12,13 +12,15 @@
     <sheet name="redis" sheetId="3" r:id="rId3"/>
     <sheet name="Elasticsearch" sheetId="4" r:id="rId4"/>
     <sheet name="nacos" sheetId="5" r:id="rId5"/>
+    <sheet name="Docker安装RabbitMQ" sheetId="6" r:id="rId6"/>
+    <sheet name="docker-compose制作镜像&amp;启动" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="92">
   <si>
     <t>区分：Docker安装和Linux安装</t>
   </si>
@@ -155,13 +157,13 @@
     </r>
   </si>
   <si>
-    <t>docker run -p 3316:3306 --name mysql01 -e MYSQL_ROOT_PASSWORD=root -d mysql:5.7</t>
+    <t>docker run -p 3316:3306 --name jeecg-boot-mysql -e MYSQL_ROOT_PASSWORD=root -d mysql:5.7</t>
   </si>
   <si>
     <t>方式2：启动容器,并设置mysql忽略大小写</t>
   </si>
   <si>
-    <t>docker run -p 3316:3306 --name mysql01 -e MYSQL_ROOT_PASSWORD=root -d mysql:5.7  --lower_case_table_names=1</t>
+    <t>docker run -p 3316:3306 --name jeecg-boot-mysql -e MYSQL_ROOT_PASSWORD=root -d mysql:5.7  --lower_case_table_names=1</t>
   </si>
   <si>
     <t>列出当前正在运行的容器</t>
@@ -209,7 +211,7 @@
     <t>运行容器</t>
   </si>
   <si>
-    <t>docker run -itd --name redis-test -p 6379:6379 redis</t>
+    <t>docker run -itd --name jeecg-boot-redis -p 6379:6379 redis</t>
   </si>
   <si>
     <t>docker exec -it redis-test /bin/bash</t>
@@ -315,6 +317,118 @@
   <si>
     <t>docker run -d -p 8848:8848 --env MODE=standalone --name nacos nacos/nacos-server</t>
   </si>
+  <si>
+    <t>docker 安装 rabbitmq</t>
+  </si>
+  <si>
+    <t>https://my.oschina.net/jeecg/blog/4729143</t>
+  </si>
+  <si>
+    <t>下载镜像</t>
+  </si>
+  <si>
+    <t>docker pull rabbitmq:3.7.7-management</t>
+  </si>
+  <si>
+    <t>启动镜像
+用户名和密码设置为 guest guest</t>
+  </si>
+  <si>
+    <t>docker run -dit --name rabbitmq3.7.7 -e RABBITMQ_DEFAULT_USER=guest -e RABBITMQ_DEFAULT_PASS=guest -p 15672:15672 -p 5672:5672 rabbitmq:3.7.7-management</t>
+  </si>
+  <si>
+    <t>访问 rabbitmq 管理界面</t>
+  </si>
+  <si>
+    <t>http://127.0.0.1:15672</t>
+  </si>
+  <si>
+    <t>安装延时队列（delayed_message_exchange）</t>
+  </si>
+  <si>
+    <t>https://my.oschina.net/jeecg/blog/4719615</t>
+  </si>
+  <si>
+    <t>docker-compose.yml</t>
+  </si>
+  <si>
+    <t>注意： 如果本地安装了mysql和redis,启动容器前先停掉本地服务，不然会端口冲突。</t>
+  </si>
+  <si>
+    <r>
+      <t>hosts文件配置映射</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+就能用jeecg-boot-mysql了
+直接用127.0.0.1也行
+就像127.0.0.1   localhost
+这些指向127.0.0.1是一致的</t>
+    </r>
+  </si>
+  <si>
+    <t>127.0.0.1 jeecg-boot-mysql
+127.0.0.1 jeecg-boot-redis
+127.0.0.1 jeecg-boot-nacos
+127.0.0.1 jeecg-boot-system
+127.0.0.1 jeecg-boot-gateway
+127.0.0.1 jeecg-boot-sentinel
+127.0.0.1 jeecg-boot-xxljob
+127.0.0.1 jeecg-boot-rabbitmq</t>
+  </si>
+  <si>
+    <t>建数据库
+数据库设置密码与项目密码一致</t>
+  </si>
+  <si>
+    <t>搜索url: jdbc:mysql://    显示的数据库都新建</t>
+  </si>
+  <si>
+    <r>
+      <t>jeecg-boot根目录</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>打包项目</t>
+    </r>
+  </si>
+  <si>
+    <t>略</t>
+  </si>
+  <si>
+    <t>cd jeecg-cloud-module</t>
+  </si>
+  <si>
+    <t>执行脚本docker-compose-base.yml</t>
+  </si>
+  <si>
+    <t>docker-compose -f docker-compose-base.yml up -d</t>
+  </si>
+  <si>
+    <t>创建容器</t>
+  </si>
+  <si>
+    <t>docker-compose up -d</t>
+  </si>
+  <si>
+    <t>访问gateway地址，确认微服务启动成功</t>
+  </si>
+  <si>
+    <t>http://localhost:9999</t>
+  </si>
 </sst>
 </file>
 
@@ -330,6 +444,13 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -485,20 +606,19 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="34">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -807,10 +927,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -819,36 +939,33 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -858,103 +975,109 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="10">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -962,13 +1085,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="10">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1459,7 +1588,7 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="6" t="s">
         <v>1</v>
       </c>
     </row>
@@ -1467,7 +1596,7 @@
       <c r="A2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="5" t="s">
         <v>3</v>
       </c>
     </row>
@@ -1480,37 +1609,37 @@
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="5"/>
-      <c r="B4" s="5"/>
+      <c r="A4" s="8"/>
+      <c r="B4" s="8"/>
     </row>
     <row r="5" ht="43.2" spans="1:2">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="5" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" s="5" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" s="6"/>
-      <c r="B7" s="6"/>
+      <c r="A7" s="9"/>
+      <c r="B7" s="9"/>
     </row>
     <row r="8" spans="2:2">
-      <c r="B8" s="1"/>
+      <c r="B8" s="5"/>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B9" s="5" t="s">
         <v>11</v>
       </c>
     </row>
@@ -1536,8 +1665,8 @@
   <sheetPr/>
   <dimension ref="A1:B11"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="1"/>
@@ -1558,7 +1687,7 @@
       <c r="A2" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="5" t="s">
         <v>15</v>
       </c>
     </row>
@@ -1587,7 +1716,7 @@
       </c>
     </row>
     <row r="6" ht="72" spans="1:2">
-      <c r="A6" s="4" t="s">
+      <c r="A6" s="7" t="s">
         <v>22</v>
       </c>
       <c r="B6" t="s">
@@ -1619,7 +1748,7 @@
       </c>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" s="2" t="s">
+      <c r="A10" s="6" t="s">
         <v>30</v>
       </c>
       <c r="B10" t="s">
@@ -1650,8 +1779,8 @@
   <sheetPr/>
   <dimension ref="A1:B8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="7" outlineLevelCol="1"/>
@@ -1672,7 +1801,7 @@
       <c r="A2" t="s">
         <v>35</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="5" t="s">
         <v>36</v>
       </c>
     </row>
@@ -1754,7 +1883,7 @@
       <c r="A2" t="s">
         <v>45</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="5" t="s">
         <v>46</v>
       </c>
     </row>
@@ -1762,20 +1891,20 @@
       <c r="A3" t="s">
         <v>47</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="5" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="4" ht="43.2" spans="1:2">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="5" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="5" spans="2:2">
-      <c r="B5" s="1"/>
+      <c r="B5" s="5"/>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
@@ -1799,7 +1928,7 @@
       </c>
     </row>
     <row r="9" spans="1:2">
-      <c r="A9" s="3" t="s">
+      <c r="A9" s="4" t="s">
         <v>55</v>
       </c>
       <c r="B9" t="s">
@@ -1810,7 +1939,7 @@
       <c r="A10" t="s">
         <v>57</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B10" s="5" t="s">
         <v>58</v>
       </c>
     </row>
@@ -1818,7 +1947,7 @@
       <c r="A12" t="s">
         <v>59</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="B12" s="5" t="s">
         <v>60</v>
       </c>
     </row>
@@ -1878,4 +2007,161 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A2:B8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="7" outlineLevelCol="1"/>
+  <cols>
+    <col min="1" max="1" width="40.7777777777778" customWidth="1"/>
+    <col min="2" max="2" width="120.777777777778" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>69</v>
+      </c>
+      <c r="B4" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="5" ht="28.8" spans="1:2">
+      <c r="A5" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>73</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" t="s">
+        <v>75</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>76</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1" display="https://my.oschina.net/jeecg/blog/4729143"/>
+    <hyperlink ref="B6" r:id="rId2" display="http://127.0.0.1:15672"/>
+    <hyperlink ref="B8" r:id="rId3" display="https://my.oschina.net/jeecg/blog/4719615"/>
+  </hyperlinks>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:B9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B13" sqref="B12:B13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="1"/>
+  <cols>
+    <col min="1" max="1" width="40.7777777777778" customWidth="1"/>
+    <col min="2" max="2" width="120.777777777778" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B1" s="1"/>
+    </row>
+    <row r="2" spans="2:2">
+      <c r="B2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="3" ht="115.2" spans="1:2">
+      <c r="A3" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="4" ht="28.8" spans="1:2">
+      <c r="A4" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="B5" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="6" spans="2:2">
+      <c r="B6" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
+        <v>86</v>
+      </c>
+      <c r="B7" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" t="s">
+        <v>88</v>
+      </c>
+      <c r="B8" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" t="s">
+        <v>90</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>91</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:B1"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="B9" r:id="rId1" display="http://localhost:9999"/>
+  </hyperlinks>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
 </file>
--- a/java/Linux/Docker_Desktop.xlsx
+++ b/java/Linux/Docker_Desktop.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22368" windowHeight="9420" activeTab="6"/>
+    <workbookView windowWidth="22368" windowHeight="9420" firstSheet="6" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="安装" sheetId="1" r:id="rId1"/>
@@ -14,13 +14,16 @@
     <sheet name="nacos" sheetId="5" r:id="rId5"/>
     <sheet name="Docker安装RabbitMQ" sheetId="6" r:id="rId6"/>
     <sheet name="docker-compose制作镜像&amp;启动" sheetId="7" r:id="rId7"/>
+    <sheet name="SpringBoot打包镜像" sheetId="8" r:id="rId8"/>
+    <sheet name="容器间通信" sheetId="9" r:id="rId9"/>
+    <sheet name="docker-compose" sheetId="10" r:id="rId10"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="138">
   <si>
     <t>区分：Docker安装和Linux安装</t>
   </si>
@@ -157,13 +160,13 @@
     </r>
   </si>
   <si>
-    <t>docker run -p 3316:3306 --name jeecg-boot-mysql -e MYSQL_ROOT_PASSWORD=root -d mysql:5.7</t>
+    <t>docker run -p 3306:3306 --name news-mysql -e MYSQL_ROOT_PASSWORD=root -d mysql:5.7</t>
   </si>
   <si>
     <t>方式2：启动容器,并设置mysql忽略大小写</t>
   </si>
   <si>
-    <t>docker run -p 3316:3306 --name jeecg-boot-mysql -e MYSQL_ROOT_PASSWORD=root -d mysql:5.7  --lower_case_table_names=1</t>
+    <t>docker run -p 3306:3306 --name news-mysql -e MYSQL_ROOT_PASSWORD=root -d mysql:5.7  --lower_case_table_names=1</t>
   </si>
   <si>
     <t>列出当前正在运行的容器</t>
@@ -172,6 +175,12 @@
     <t>docker ps</t>
   </si>
   <si>
+    <t>把sql文件复制到容器中</t>
+  </si>
+  <si>
+    <t>docker cp *.sql news-mysql:/sql-file/*.sql</t>
+  </si>
+  <si>
     <t>进入当前正在运行的容器</t>
   </si>
   <si>
@@ -181,7 +190,14 @@
     <t>登录 Mysql 数据库</t>
   </si>
   <si>
-    <t>mysql -u root -p</t>
+    <t>语法： mysql -u 用户名 -p 密码          默认用户名root
+mysql -u root -p</t>
+  </si>
+  <si>
+    <t>运行sql文件</t>
+  </si>
+  <si>
+    <t>source /sql-file/*.sql</t>
   </si>
   <si>
     <t>退出（两次）</t>
@@ -211,7 +227,7 @@
     <t>运行容器</t>
   </si>
   <si>
-    <t>docker run -itd --name jeecg-boot-redis -p 6379:6379 redis</t>
+    <t>docker run -itd --name news-redis -p 6379:6379 redis</t>
   </si>
   <si>
     <t>docker exec -it redis-test /bin/bash</t>
@@ -356,6 +372,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>hosts文件配置映射</t>
     </r>
     <r>
@@ -392,6 +415,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>jeecg-boot根目录</t>
     </r>
     <r>
@@ -428,6 +458,242 @@
   </si>
   <si>
     <t>http://localhost:9999</t>
+  </si>
+  <si>
+    <t>springBoot项目打成docker镜像</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Docker安装openjdk-11
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>本地有装了</t>
+    </r>
+  </si>
+  <si>
+    <t>docker pull openjdk:11</t>
+  </si>
+  <si>
+    <t>构建镜像</t>
+  </si>
+  <si>
+    <t>docker build -t springboot .</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">启动容器
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>用这个容器通信不行，连接不上news-mysql容器</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>开始运行springboot项目，需要几分钟时间</t>
+    </r>
+  </si>
+  <si>
+    <t>docker run -d -p 8062:8062 --name news-springboot springboot</t>
+  </si>
+  <si>
+    <t>进入容器</t>
+  </si>
+  <si>
+    <t>docker exec -it news-springboot /bin/bash</t>
+  </si>
+  <si>
+    <t>查看日志</t>
+  </si>
+  <si>
+    <t>docker logs -f -t --tail=100 news-springboot</t>
+  </si>
+  <si>
+    <t>连接mysql用的是localhost,SpringBoot容器与mysql容器的localhost是不一样的</t>
+  </si>
+  <si>
+    <t>Docke容器间通信：SpringBoot项目构建Docker镜像Run时一直提示我数据库拒绝连接？</t>
+  </si>
+  <si>
+    <t>https://www.codenong.com/cs106688685/</t>
+  </si>
+  <si>
+    <t>原因</t>
+  </si>
+  <si>
+    <t>容器之间没有通信，也就是网络不通。</t>
+  </si>
+  <si>
+    <t>解决方式1：link容器互联</t>
+  </si>
+  <si>
+    <t>先删掉已有的news-springboot容器</t>
+  </si>
+  <si>
+    <t>docker run --name news-springboot --link news-mysql --link news-redis  -p 8062:8062 springboot</t>
+  </si>
+  <si>
+    <t>解决方式2：桥接网络</t>
+  </si>
+  <si>
+    <t>创建网络</t>
+  </si>
+  <si>
+    <t>docker network create news-network</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">先删掉已有的news-mysql容器
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>记得重新生成数据库</t>
+    </r>
+  </si>
+  <si>
+    <t>docker run -it --network news-network --network-alias news-mysql -p 3306:3306 --name news-mysql -e MYSQL_ROOT_PASSWORD=root -d mysql:5.7</t>
+  </si>
+  <si>
+    <t>先删掉已有的news-redis容器</t>
+  </si>
+  <si>
+    <t>docker run -it --network news-network --network-alias news-redis -d -p 6379:6379 --name news-redis redis</t>
+  </si>
+  <si>
+    <t>docker run -it --network news-network --network-alias news-springboot --name news-springboot -p 8062:8062 springboot</t>
+  </si>
+  <si>
+    <t>查看网络连接的容器</t>
+  </si>
+  <si>
+    <t>docker network inspect news-network</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">C:\Windows\System32\drivers\etc\HOSTS
+映射配置才能连接上容器
+不能直接修改HOSTS，复制一份，修改完后替换就ok了
+jdbc:mysql://localhost:3306
+改为
+jdbc:mysql://127.0.0.1:3306
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>写容器名就不需要映射啦   用映射是为了不用改yaml配置文件
+部署一定要容器名</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+jdbc:mysql://news-mysql:3306</t>
+    </r>
+  </si>
+  <si>
+    <t>127.0.0.1 news-mysql
+127.0.0.1 news-redis</t>
+  </si>
+  <si>
+    <t>docker-compose</t>
+  </si>
+  <si>
+    <r>
+      <t>用来定义和运行复杂应用的Docker工具，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>管理多个Docker容器</t>
+    </r>
+  </si>
+  <si>
+    <t>官方文档</t>
+  </si>
+  <si>
+    <t>https://docs.docker.com/compose/</t>
+  </si>
+  <si>
+    <t>菜鸟教程--推荐看这个</t>
+  </si>
+  <si>
+    <t>https://www.runoob.com/docker/docker-compose.html</t>
+  </si>
+  <si>
+    <t>查看版本，检测是否安装成功</t>
+  </si>
+  <si>
+    <t>docker-compose version</t>
+  </si>
+  <si>
+    <t>打包springboot项目</t>
+  </si>
+  <si>
+    <t>mvn clean install</t>
+  </si>
+  <si>
+    <t>构建和运行应用程序</t>
   </si>
 </sst>
 </file>
@@ -449,6 +715,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
@@ -458,7 +732,7 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -487,14 +761,6 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -607,7 +873,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="35">
+  <fills count="36">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -616,13 +882,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="3" tint="0.4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -927,10 +1199,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -939,31 +1211,31 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -984,28 +1256,28 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -1014,84 +1286,96 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="10">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="10" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="10">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -1167,13 +1451,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>635</xdr:colOff>
-      <xdr:row>13</xdr:row>
+      <xdr:row>15</xdr:row>
       <xdr:rowOff>15240</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>1210310</xdr:colOff>
-      <xdr:row>33</xdr:row>
+      <xdr:row>35</xdr:row>
       <xdr:rowOff>172085</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1191,7 +1475,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="635" y="3124200"/>
+          <a:off x="635" y="3672840"/>
           <a:ext cx="4692015" cy="3814445"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1588,7 +1872,7 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
     </row>
@@ -1596,7 +1880,7 @@
       <c r="A2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="2" t="s">
         <v>3</v>
       </c>
     </row>
@@ -1609,37 +1893,37 @@
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="8"/>
-      <c r="B4" s="8"/>
+      <c r="A4" s="12"/>
+      <c r="B4" s="12"/>
     </row>
     <row r="5" ht="43.2" spans="1:2">
-      <c r="A5" s="6" t="s">
+      <c r="A5" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="6" t="s">
+      <c r="A6" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" s="9"/>
-      <c r="B7" s="9"/>
+      <c r="A7" s="13"/>
+      <c r="B7" s="13"/>
     </row>
     <row r="8" spans="2:2">
-      <c r="B8" s="5"/>
+      <c r="B8" s="2"/>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="B9" s="2" t="s">
         <v>11</v>
       </c>
     </row>
@@ -1660,10 +1944,86 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:B7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="6" outlineLevelCol="1"/>
+  <cols>
+    <col min="1" max="1" width="50.7777777777778" customWidth="1"/>
+    <col min="2" max="2" width="120.777777777778" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>127</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>129</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="4" spans="2:2">
+      <c r="B4" s="1"/>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>133</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>135</v>
+      </c>
+      <c r="B6" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
+        <v>137</v>
+      </c>
+      <c r="B7" t="s">
+        <v>93</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1" display="https://docs.docker.com/compose/"/>
+    <hyperlink ref="B3" r:id="rId2" display="https://www.runoob.com/docker/docker-compose.html"/>
+  </hyperlinks>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:B13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B6" sqref="B6"/>
@@ -1687,7 +2047,7 @@
       <c r="A2" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="2" t="s">
         <v>15</v>
       </c>
     </row>
@@ -1716,7 +2076,7 @@
       </c>
     </row>
     <row r="6" ht="72" spans="1:2">
-      <c r="A6" s="7" t="s">
+      <c r="A6" s="8" t="s">
         <v>22</v>
       </c>
       <c r="B6" t="s">
@@ -1748,19 +2108,35 @@
       </c>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" s="6" t="s">
+      <c r="A10" t="s">
         <v>30</v>
       </c>
       <c r="B10" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
-      <c r="A11" t="s">
+    <row r="11" ht="28.8" spans="1:2">
+      <c r="A11" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="4" t="s">
         <v>33</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" t="s">
+        <v>36</v>
+      </c>
+      <c r="B13" t="s">
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -1780,7 +2156,7 @@
   <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="7" outlineLevelCol="1"/>
@@ -1794,28 +2170,28 @@
         <v>12</v>
       </c>
       <c r="B1" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>35</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>36</v>
+        <v>39</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B3" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B4" t="s">
         <v>21</v>
@@ -1823,10 +2199,10 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B5" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -1839,18 +2215,18 @@
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B7" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="B8" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
     </row>
   </sheetData>
@@ -1881,45 +2257,45 @@
   <sheetData>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>45</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>46</v>
+        <v>49</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>47</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>48</v>
+        <v>51</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="4" ht="43.2" spans="1:2">
-      <c r="A4" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>50</v>
+      <c r="A4" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="5" spans="2:2">
-      <c r="B5" s="5"/>
+      <c r="B5" s="2"/>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="B6" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="B7" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
     </row>
     <row r="8" spans="2:2">
@@ -1928,27 +2304,27 @@
       </c>
     </row>
     <row r="9" spans="1:2">
-      <c r="A9" s="4" t="s">
-        <v>55</v>
+      <c r="A9" s="1" t="s">
+        <v>59</v>
       </c>
       <c r="B9" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>57</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>58</v>
+        <v>61</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>59</v>
-      </c>
-      <c r="B12" s="5" t="s">
-        <v>60</v>
+        <v>63</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>64</v>
       </c>
     </row>
   </sheetData>
@@ -1981,26 +2357,26 @@
   <sheetData>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="B2" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="B3" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="B4" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
     </row>
   </sheetData>
@@ -2026,42 +2402,42 @@
   <sheetData>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>67</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>68</v>
+        <v>71</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="B4" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
     </row>
     <row r="5" ht="28.8" spans="1:2">
-      <c r="A5" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>72</v>
+      <c r="A5" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>73</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>74</v>
+        <v>77</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>75</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>76</v>
+        <v>79</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>80</v>
       </c>
     </row>
   </sheetData>
@@ -2080,7 +2456,7 @@
   <sheetPr/>
   <dimension ref="A1:B9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B13" sqref="B12:B13"/>
     </sheetView>
   </sheetViews>
@@ -2091,67 +2467,67 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="B1" s="1"/>
+      <c r="A1" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="B1" s="10"/>
     </row>
     <row r="2" spans="2:2">
       <c r="B2" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
     </row>
     <row r="3" ht="115.2" spans="1:2">
-      <c r="A3" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>80</v>
+      <c r="A3" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="4" ht="28.8" spans="1:2">
-      <c r="A4" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>82</v>
+      <c r="A4" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="4" t="s">
-        <v>83</v>
+      <c r="A5" s="1" t="s">
+        <v>87</v>
       </c>
       <c r="B5" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
     </row>
     <row r="6" spans="2:2">
       <c r="B6" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="B7" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="B8" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>90</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>91</v>
+        <v>94</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>95</v>
       </c>
     </row>
   </sheetData>
@@ -2164,4 +2540,198 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:B7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="6" outlineLevelCol="1"/>
+  <cols>
+    <col min="1" max="1" width="50.7777777777778" customWidth="1"/>
+    <col min="2" max="2" width="120.777777777778" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="B1" s="9"/>
+    </row>
+    <row r="2" ht="28.8" spans="1:2">
+      <c r="A2" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="B2" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>99</v>
+      </c>
+      <c r="B3" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="4" spans="2:2">
+      <c r="B4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" ht="43.2" spans="1:2">
+      <c r="A5" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="B5" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>103</v>
+      </c>
+      <c r="B6" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
+        <v>105</v>
+      </c>
+      <c r="B7" t="s">
+        <v>106</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:B1"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:B18"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B22" sqref="B22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="1"/>
+  <cols>
+    <col min="1" max="1" width="60.7777777777778" customWidth="1"/>
+    <col min="2" max="2" width="120.777777777778" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="B1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="4"/>
+      <c r="B2" s="5" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>110</v>
+      </c>
+      <c r="B3" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="B5" s="6"/>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>113</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="B9" s="6"/>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" t="s">
+        <v>116</v>
+      </c>
+      <c r="B10" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="11" ht="28.8" spans="1:2">
+      <c r="A11" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" t="s">
+        <v>120</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" t="s">
+        <v>113</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" t="s">
+        <v>123</v>
+      </c>
+      <c r="B16" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="18" ht="129.6" spans="1:2">
+      <c r="A18" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>126</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A1:A2"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1" display="https://www.codenong.com/cs106688685/"/>
+  </hyperlinks>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
 </file>
--- a/java/Linux/Docker_Desktop.xlsx
+++ b/java/Linux/Docker_Desktop.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22368" windowHeight="9420" firstSheet="6" activeTab="8"/>
+    <workbookView windowWidth="22368" windowHeight="9420" firstSheet="6" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="安装" sheetId="1" r:id="rId1"/>
@@ -496,6 +496,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">启动容器
 </t>
     </r>
@@ -581,6 +588,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">先删掉已有的news-mysql容器
 </t>
     </r>
@@ -615,6 +629,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">C:\Windows\System32\drivers\etc\HOSTS
 映射配置才能连接上容器
 不能直接修改HOSTS，复制一份，修改完后替换就ok了
@@ -655,6 +676,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>用来定义和运行复杂应用的Docker工具，</t>
     </r>
     <r>
@@ -1341,7 +1369,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1362,9 +1390,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1893,8 +1918,8 @@
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="12"/>
-      <c r="B4" s="12"/>
+      <c r="A4" s="11"/>
+      <c r="B4" s="11"/>
     </row>
     <row r="5" ht="43.2" spans="1:2">
       <c r="A5" s="4" t="s">
@@ -1913,8 +1938,8 @@
       </c>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" s="13"/>
-      <c r="B7" s="13"/>
+      <c r="A7" s="12"/>
+      <c r="B7" s="12"/>
     </row>
     <row r="8" spans="2:2">
       <c r="B8" s="2"/>
@@ -1949,8 +1974,8 @@
   <sheetPr/>
   <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="6" outlineLevelCol="1"/>
@@ -2076,7 +2101,7 @@
       </c>
     </row>
     <row r="6" ht="72" spans="1:2">
-      <c r="A6" s="8" t="s">
+      <c r="A6" s="7" t="s">
         <v>22</v>
       </c>
       <c r="B6" t="s">
@@ -2467,10 +2492,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="9" t="s">
         <v>81</v>
       </c>
-      <c r="B1" s="10"/>
+      <c r="B1" s="9"/>
     </row>
     <row r="2" spans="2:2">
       <c r="B2" t="s">
@@ -2478,7 +2503,7 @@
       </c>
     </row>
     <row r="3" ht="115.2" spans="1:2">
-      <c r="A3" s="11" t="s">
+      <c r="A3" s="10" t="s">
         <v>83</v>
       </c>
       <c r="B3" s="4" t="s">
@@ -2486,7 +2511,7 @@
       </c>
     </row>
     <row r="4" ht="28.8" spans="1:2">
-      <c r="A4" s="11" t="s">
+      <c r="A4" s="10" t="s">
         <v>85</v>
       </c>
       <c r="B4" s="4" t="s">
@@ -2558,13 +2583,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="8" t="s">
         <v>96</v>
       </c>
-      <c r="B1" s="9"/>
+      <c r="B1" s="8"/>
     </row>
     <row r="2" ht="28.8" spans="1:2">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="7" t="s">
         <v>97</v>
       </c>
       <c r="B2" t="s">
@@ -2585,7 +2610,7 @@
       </c>
     </row>
     <row r="5" ht="43.2" spans="1:2">
-      <c r="A5" s="8" t="s">
+      <c r="A5" s="7" t="s">
         <v>101</v>
       </c>
       <c r="B5" t="s">
@@ -2622,7 +2647,7 @@
   <sheetPr/>
   <dimension ref="A1:B18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
@@ -2715,7 +2740,7 @@
       </c>
     </row>
     <row r="18" ht="129.6" spans="1:2">
-      <c r="A18" s="8" t="s">
+      <c r="A18" s="7" t="s">
         <v>125</v>
       </c>
       <c r="B18" s="4" t="s">

--- a/java/Linux/Docker_Desktop.xlsx
+++ b/java/Linux/Docker_Desktop.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="140">
   <si>
     <t>区分：Docker安装和Linux安装</t>
   </si>
@@ -719,6 +719,12 @@
   </si>
   <si>
     <t>mvn clean install</t>
+  </si>
+  <si>
+    <t>先本地测试打包文件</t>
+  </si>
+  <si>
+    <t>java -jar ./包名.jar</t>
   </si>
   <si>
     <t>构建和运行应用程序</t>
@@ -1369,7 +1375,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1381,6 +1387,12 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1897,7 +1909,7 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="6" t="s">
         <v>1</v>
       </c>
     </row>
@@ -1918,11 +1930,11 @@
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="11"/>
-      <c r="B4" s="11"/>
+      <c r="A4" s="13"/>
+      <c r="B4" s="13"/>
     </row>
     <row r="5" ht="43.2" spans="1:2">
-      <c r="A5" s="4" t="s">
+      <c r="A5" s="6" t="s">
         <v>6</v>
       </c>
       <c r="B5" s="2" t="s">
@@ -1930,7 +1942,7 @@
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="4" t="s">
+      <c r="A6" s="6" t="s">
         <v>8</v>
       </c>
       <c r="B6" s="2" t="s">
@@ -1938,8 +1950,8 @@
       </c>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" s="12"/>
-      <c r="B7" s="12"/>
+      <c r="A7" s="14"/>
+      <c r="B7" s="14"/>
     </row>
     <row r="8" spans="2:2">
       <c r="B8" s="2"/>
@@ -1972,13 +1984,13 @@
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="6" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="1"/>
   <cols>
     <col min="1" max="1" width="50.7777777777778" customWidth="1"/>
     <col min="2" max="2" width="120.777777777778" customWidth="1"/>
@@ -2028,14 +2040,29 @@
       </c>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" t="s">
+      <c r="A7" s="4" t="s">
         <v>137</v>
       </c>
       <c r="B7" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="4"/>
+      <c r="B8" s="5"/>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" t="s">
+        <v>139</v>
+      </c>
+      <c r="B9" t="s">
         <v>93</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A7:A8"/>
+  </mergeCells>
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1" display="https://docs.docker.com/compose/"/>
     <hyperlink ref="B3" r:id="rId2" display="https://www.runoob.com/docker/docker-compose.html"/>
@@ -2101,7 +2128,7 @@
       </c>
     </row>
     <row r="6" ht="72" spans="1:2">
-      <c r="A6" s="7" t="s">
+      <c r="A6" s="9" t="s">
         <v>22</v>
       </c>
       <c r="B6" t="s">
@@ -2141,18 +2168,18 @@
       </c>
     </row>
     <row r="11" ht="28.8" spans="1:2">
-      <c r="A11" s="4" t="s">
+      <c r="A11" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="B11" s="6" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="12" spans="1:2">
-      <c r="A12" s="4" t="s">
+      <c r="A12" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="B12" s="4" t="s">
+      <c r="B12" s="6" t="s">
         <v>35</v>
       </c>
     </row>
@@ -2297,7 +2324,7 @@
       </c>
     </row>
     <row r="4" ht="43.2" spans="1:2">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="6" t="s">
         <v>53</v>
       </c>
       <c r="B4" s="2" t="s">
@@ -2442,10 +2469,10 @@
       </c>
     </row>
     <row r="5" ht="28.8" spans="1:2">
-      <c r="A5" s="4" t="s">
+      <c r="A5" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="6" t="s">
         <v>76</v>
       </c>
     </row>
@@ -2492,10 +2519,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="11" t="s">
         <v>81</v>
       </c>
-      <c r="B1" s="9"/>
+      <c r="B1" s="11"/>
     </row>
     <row r="2" spans="2:2">
       <c r="B2" t="s">
@@ -2503,18 +2530,18 @@
       </c>
     </row>
     <row r="3" ht="115.2" spans="1:2">
-      <c r="A3" s="10" t="s">
+      <c r="A3" s="12" t="s">
         <v>83</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="6" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="4" ht="28.8" spans="1:2">
-      <c r="A4" s="10" t="s">
+      <c r="A4" s="12" t="s">
         <v>85</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="6" t="s">
         <v>86</v>
       </c>
     </row>
@@ -2573,7 +2600,7 @@
   <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="6" outlineLevelCol="1"/>
@@ -2583,13 +2610,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="10" t="s">
         <v>96</v>
       </c>
-      <c r="B1" s="8"/>
+      <c r="B1" s="10"/>
     </row>
     <row r="2" ht="28.8" spans="1:2">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="9" t="s">
         <v>97</v>
       </c>
       <c r="B2" t="s">
@@ -2610,7 +2637,7 @@
       </c>
     </row>
     <row r="5" ht="43.2" spans="1:2">
-      <c r="A5" s="7" t="s">
+      <c r="A5" s="9" t="s">
         <v>101</v>
       </c>
       <c r="B5" t="s">
@@ -2658,7 +2685,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="6" t="s">
         <v>107</v>
       </c>
       <c r="B1" t="s">
@@ -2666,8 +2693,8 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="4"/>
-      <c r="B2" s="5" t="s">
+      <c r="A2" s="6"/>
+      <c r="B2" s="7" t="s">
         <v>109</v>
       </c>
     </row>
@@ -2680,24 +2707,24 @@
       </c>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="6" t="s">
+      <c r="A5" s="8" t="s">
         <v>112</v>
       </c>
-      <c r="B5" s="6"/>
+      <c r="B5" s="8"/>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
         <v>113</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="6" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="9" spans="1:2">
-      <c r="A9" s="6" t="s">
+      <c r="A9" s="8" t="s">
         <v>115</v>
       </c>
-      <c r="B9" s="6"/>
+      <c r="B9" s="8"/>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
@@ -2708,10 +2735,10 @@
       </c>
     </row>
     <row r="11" ht="28.8" spans="1:2">
-      <c r="A11" s="7" t="s">
+      <c r="A11" s="9" t="s">
         <v>118</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="B11" s="6" t="s">
         <v>119</v>
       </c>
     </row>
@@ -2719,7 +2746,7 @@
       <c r="A12" t="s">
         <v>120</v>
       </c>
-      <c r="B12" s="4" t="s">
+      <c r="B12" s="6" t="s">
         <v>121</v>
       </c>
     </row>
@@ -2727,7 +2754,7 @@
       <c r="A13" t="s">
         <v>113</v>
       </c>
-      <c r="B13" s="4" t="s">
+      <c r="B13" s="6" t="s">
         <v>122</v>
       </c>
     </row>
@@ -2740,10 +2767,10 @@
       </c>
     </row>
     <row r="18" ht="129.6" spans="1:2">
-      <c r="A18" s="7" t="s">
+      <c r="A18" s="9" t="s">
         <v>125</v>
       </c>
-      <c r="B18" s="4" t="s">
+      <c r="B18" s="6" t="s">
         <v>126</v>
       </c>
     </row>
